--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Notch3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H2">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I2">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J2">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.01683166884561</v>
+        <v>3.684362666666666</v>
       </c>
       <c r="N2">
-        <v>5.01683166884561</v>
+        <v>11.053088</v>
       </c>
       <c r="O2">
-        <v>0.05736962816091977</v>
+        <v>0.0397011572965827</v>
       </c>
       <c r="P2">
-        <v>0.05736962816091977</v>
+        <v>0.03970115729658269</v>
       </c>
       <c r="Q2">
-        <v>873.3052181190731</v>
+        <v>0.4301763599928888</v>
       </c>
       <c r="R2">
-        <v>873.3052181190731</v>
+        <v>3.871587239935999</v>
       </c>
       <c r="S2">
-        <v>0.05562223830061883</v>
+        <v>2.553975752599603E-05</v>
       </c>
       <c r="T2">
-        <v>0.05562223830061883</v>
+        <v>2.553975752599603E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,173 +596,669 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H3">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I3">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J3">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.4306876836169</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
-        <v>82.4306876836169</v>
+        <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="P3">
-        <v>0.9426303718390802</v>
+        <v>0.05429001496473517</v>
       </c>
       <c r="Q3">
-        <v>14349.12599007148</v>
+        <v>0.5882518952035556</v>
       </c>
       <c r="R3">
-        <v>14349.12599007148</v>
+        <v>5.294267056832</v>
       </c>
       <c r="S3">
-        <v>0.913919313277865</v>
+        <v>3.492477077995358E-05</v>
       </c>
       <c r="T3">
-        <v>0.913919313277865</v>
+        <v>3.492477077995358E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.46862162845379</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H4">
-        <v>5.46862162845379</v>
+        <v>0.350272</v>
       </c>
       <c r="I4">
-        <v>0.03045844842151609</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J4">
-        <v>0.03045844842151609</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.01683166884561</v>
+        <v>0.09716666666666667</v>
       </c>
       <c r="N4">
-        <v>5.01683166884561</v>
+        <v>0.2915</v>
       </c>
       <c r="O4">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="P4">
-        <v>0.05736962816091977</v>
+        <v>0.001047027523164011</v>
       </c>
       <c r="Q4">
-        <v>27.43515417056102</v>
+        <v>0.01134492088888889</v>
       </c>
       <c r="R4">
-        <v>27.43515417056102</v>
+        <v>0.102104288</v>
       </c>
       <c r="S4">
-        <v>0.001747389860300932</v>
+        <v>6.735528857481135E-07</v>
       </c>
       <c r="T4">
-        <v>0.001747389860300932</v>
+        <v>6.735528857481135E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1167573333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.350272</v>
+      </c>
+      <c r="I5">
+        <v>0.0006433000764991399</v>
+      </c>
+      <c r="J5">
+        <v>0.0006433000764991399</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>83.98262666666666</v>
+      </c>
+      <c r="N5">
+        <v>251.94788</v>
+      </c>
+      <c r="O5">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="P5">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="Q5">
+        <v>9.805587535928888</v>
+      </c>
+      <c r="R5">
+        <v>88.25028782336</v>
+      </c>
+      <c r="S5">
+        <v>0.0005821619953074422</v>
+      </c>
+      <c r="T5">
+        <v>0.0005821619953074422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>174.184255</v>
+      </c>
+      <c r="H6">
+        <v>522.552765</v>
+      </c>
+      <c r="I6">
+        <v>0.9597062674131449</v>
+      </c>
+      <c r="J6">
+        <v>0.959706267413145</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>3.684362666666666</v>
+      </c>
+      <c r="N6">
+        <v>11.053088</v>
+      </c>
+      <c r="O6">
+        <v>0.0397011572965827</v>
+      </c>
+      <c r="P6">
+        <v>0.03970115729658269</v>
+      </c>
+      <c r="Q6">
+        <v>641.7579662431467</v>
+      </c>
+      <c r="R6">
+        <v>5775.82169618832</v>
+      </c>
+      <c r="S6">
+        <v>0.03810144948108552</v>
+      </c>
+      <c r="T6">
+        <v>0.03810144948108552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>174.184255</v>
+      </c>
+      <c r="H7">
+        <v>522.552765</v>
+      </c>
+      <c r="I7">
+        <v>0.9597062674131449</v>
+      </c>
+      <c r="J7">
+        <v>0.959706267413145</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N7">
+        <v>15.114731</v>
+      </c>
+      <c r="O7">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="P7">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="Q7">
+        <v>877.5827195868018</v>
+      </c>
+      <c r="R7">
+        <v>7898.244476281217</v>
+      </c>
+      <c r="S7">
+        <v>0.05210246761960977</v>
+      </c>
+      <c r="T7">
+        <v>0.05210246761960978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>174.184255</v>
+      </c>
+      <c r="H8">
+        <v>522.552765</v>
+      </c>
+      <c r="I8">
+        <v>0.9597062674131449</v>
+      </c>
+      <c r="J8">
+        <v>0.959706267413145</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.09716666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.2915</v>
+      </c>
+      <c r="O8">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="P8">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="Q8">
+        <v>16.92490344416667</v>
+      </c>
+      <c r="R8">
+        <v>152.3241309975</v>
+      </c>
+      <c r="S8">
+        <v>0.001004838876134563</v>
+      </c>
+      <c r="T8">
+        <v>0.001004838876134564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>174.184255</v>
+      </c>
+      <c r="H9">
+        <v>522.552765</v>
+      </c>
+      <c r="I9">
+        <v>0.9597062674131449</v>
+      </c>
+      <c r="J9">
+        <v>0.959706267413145</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>83.98262666666666</v>
+      </c>
+      <c r="N9">
+        <v>251.94788</v>
+      </c>
+      <c r="O9">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="P9">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="Q9">
+        <v>14628.45125887647</v>
+      </c>
+      <c r="R9">
+        <v>131656.0613298882</v>
+      </c>
+      <c r="S9">
+        <v>0.8684975114363152</v>
+      </c>
+      <c r="T9">
+        <v>0.8684975114363153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H10">
+        <v>21.589359</v>
+      </c>
+      <c r="I10">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J10">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>3.684362666666666</v>
+      </c>
+      <c r="N10">
+        <v>11.053088</v>
+      </c>
+      <c r="O10">
+        <v>0.0397011572965827</v>
+      </c>
+      <c r="P10">
+        <v>0.03970115729658269</v>
+      </c>
+      <c r="Q10">
+        <v>26.51434276562133</v>
+      </c>
+      <c r="R10">
+        <v>238.629084890592</v>
+      </c>
+      <c r="S10">
+        <v>0.001574168057971177</v>
+      </c>
+      <c r="T10">
+        <v>0.001574168057971177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5.46862162845379</v>
-      </c>
-      <c r="H5">
-        <v>5.46862162845379</v>
-      </c>
-      <c r="I5">
-        <v>0.03045844842151609</v>
-      </c>
-      <c r="J5">
-        <v>0.03045844842151609</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>82.4306876836169</v>
-      </c>
-      <c r="N5">
-        <v>82.4306876836169</v>
-      </c>
-      <c r="O5">
-        <v>0.9426303718390802</v>
-      </c>
-      <c r="P5">
-        <v>0.9426303718390802</v>
-      </c>
-      <c r="Q5">
-        <v>450.7822415149468</v>
-      </c>
-      <c r="R5">
-        <v>450.7822415149468</v>
-      </c>
-      <c r="S5">
-        <v>0.02871105856121516</v>
-      </c>
-      <c r="T5">
-        <v>0.02871105856121516</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H11">
+        <v>21.589359</v>
+      </c>
+      <c r="I11">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J11">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.114731</v>
+      </c>
+      <c r="O11">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="P11">
+        <v>0.05429001496473517</v>
+      </c>
+      <c r="Q11">
+        <v>36.25748374971433</v>
+      </c>
+      <c r="R11">
+        <v>326.317353747429</v>
+      </c>
+      <c r="S11">
+        <v>0.002152622574345445</v>
+      </c>
+      <c r="T11">
+        <v>0.002152622574345446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H12">
+        <v>21.589359</v>
+      </c>
+      <c r="I12">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J12">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.09716666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.2915</v>
+      </c>
+      <c r="O12">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="P12">
+        <v>0.001047027523164011</v>
+      </c>
+      <c r="Q12">
+        <v>0.6992553498333333</v>
+      </c>
+      <c r="R12">
+        <v>6.293298148499999</v>
+      </c>
+      <c r="S12">
+        <v>4.151509414369976E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.151509414369977E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H13">
+        <v>21.589359</v>
+      </c>
+      <c r="I13">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J13">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>83.98262666666666</v>
+      </c>
+      <c r="N13">
+        <v>251.94788</v>
+      </c>
+      <c r="O13">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="P13">
+        <v>0.9049618002155182</v>
+      </c>
+      <c r="Q13">
+        <v>604.3770256232132</v>
+      </c>
+      <c r="R13">
+        <v>5439.393230608919</v>
+      </c>
+      <c r="S13">
+        <v>0.03588212678389561</v>
+      </c>
+      <c r="T13">
+        <v>0.03588212678389562</v>
       </c>
     </row>
   </sheetData>
